--- a/mbs-perturbation/chain/svm/chain-svm-poly-results.xlsx
+++ b/mbs-perturbation/chain/svm/chain-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.08</v>
       </c>
       <c r="C2" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8528138528138527</v>
+        <v>0.6854256854256854</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9402173913043479</v>
+        <v>0.7402173913043478</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1115942028985507</v>
+        <v>0.3376811594202899</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5826086956521739</v>
+        <v>0.9913043478260871</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2710144927536232</v>
+        <v>0.5942028985507245</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04705882352941176</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5516497270845097</v>
+        <v>0.669766296505427</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/svm/chain-svm-poly-results.xlsx
+++ b/mbs-perturbation/chain/svm/chain-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6854256854256854</v>
+        <v>0.8744107744107744</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7402173913043478</v>
+        <v>0.6424242424242423</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3376811594202899</v>
+        <v>0.9695431472081218</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9913043478260871</v>
+        <v>0.9310966810966811</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5942028985507245</v>
+        <v>0.6955266955266955</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.041</v>
+        <v>0.2309523809523809</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0.2533333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06493506493506493</v>
+        <v>0.1668109668109668</v>
       </c>
       <c r="E7" t="n">
-        <v>0.669766296505427</v>
+        <v>0.8226003081333031</v>
       </c>
     </row>
   </sheetData>
